--- a/1MayOH.xlsx
+++ b/1MayOH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olobo\Documents\Machine Learning\Projects\SteamDeck Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8355697-18F4-4D31-B5BD-D21CA8DC804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F824AA-E424-47C8-948A-25CA845FF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{F0536A0A-016E-459F-8AD6-3DC0CB0C9D30}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="13">
   <si>
     <t>Region</t>
   </si>
@@ -435,13 +435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974CF4F5-03F8-490A-BA21-910B3032D500}">
   <dimension ref="A1:E936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,19 +465,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>1626454970</v>
+        <v>1626454855</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>1646679000</v>
+        <v>1646675193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -504,13 +505,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>1626454855</v>
+        <v>1626454966</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>1646675340</v>
+        <v>1646675040</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -527,24 +528,24 @@
         <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>1646675193</v>
+        <v>1646675340</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>1626454966</v>
+        <v>1626454970</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
-        <v>1646675040</v>
+        <v>1646679000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8352,53 +8353,53 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C466" s="2">
-        <v>1626457297</v>
+        <v>1626457298</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E466" s="2">
-        <v>1650904800</v>
+        <v>1649089800</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C467" s="2">
-        <v>1626457298</v>
+        <v>1626457301</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E467" s="2">
-        <v>1649089800</v>
+        <v>1649091207</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C468" s="2">
-        <v>1626457301</v>
+        <v>1626457373</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E468" s="2">
-        <v>1649091207</v>
+        <v>1650905222</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -8409,13 +8410,13 @@
         <v>12</v>
       </c>
       <c r="C469" s="2">
-        <v>1626457373</v>
+        <v>1626457297</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E469" s="2">
-        <v>1650905222</v>
+        <v>1650904800</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -8834,13 +8835,13 @@
         <v>9</v>
       </c>
       <c r="C494" s="2">
-        <v>1626457560</v>
+        <v>1626457664</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E494" s="2">
-        <v>1651163520</v>
+        <v>1649694600</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -8848,33 +8849,33 @@
         <v>11</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C495" s="2">
-        <v>1626457820</v>
+        <v>1626457560</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E495" s="2">
-        <v>1651163820</v>
+        <v>1651163520</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C496" s="2">
-        <v>1626457569</v>
+        <v>1626457820</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E496" s="2">
-        <v>1649091077</v>
+        <v>1651163820</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -9168,19 +9169,19 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C514" s="2">
-        <v>1626457664</v>
+        <v>1626457569</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E514" s="2">
-        <v>1649694600</v>
+        <v>1649091077</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -10432,13 +10433,13 @@
         <v>6</v>
       </c>
       <c r="C588" s="2">
-        <v>1626459142</v>
+        <v>1626459141</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E588" s="2">
-        <v>1649351820</v>
+        <v>1649350380</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -10460,36 +10461,36 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C590" s="2">
-        <v>1626459133</v>
+        <v>1626459060</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E590" s="2">
-        <v>1650303493</v>
+        <v>1650910380</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C591" s="2">
-        <v>1626459060</v>
+        <v>1626459090</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E591" s="2">
-        <v>1650910380</v>
+        <v>1650299885</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -10497,16 +10498,16 @@
         <v>11</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C592" s="2">
-        <v>1626459090</v>
+        <v>1626459111</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E592" s="2">
-        <v>1650299885</v>
+        <v>1651509397</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -10517,13 +10518,13 @@
         <v>12</v>
       </c>
       <c r="C593" s="2">
-        <v>1626459111</v>
+        <v>1626459108</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E593" s="2">
-        <v>1651509397</v>
+        <v>1651509300</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -10534,7 +10535,7 @@
         <v>12</v>
       </c>
       <c r="C594" s="2">
-        <v>1626459108</v>
+        <v>1626459071</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>10</v>
@@ -10551,13 +10552,13 @@
         <v>12</v>
       </c>
       <c r="C595" s="2">
-        <v>1626459071</v>
+        <v>1626459060</v>
       </c>
       <c r="D595" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E595" s="2">
-        <v>1651509300</v>
+        <v>1651521383</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
@@ -10568,30 +10569,30 @@
         <v>12</v>
       </c>
       <c r="C596" s="2">
-        <v>1626459060</v>
+        <v>1626459011</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E596" s="2">
-        <v>1651521383</v>
+        <v>1651509360</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C597" s="2">
-        <v>1626459011</v>
+        <v>1626459138</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E597" s="2">
-        <v>1651509360</v>
+        <v>1649090231</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -10602,13 +10603,13 @@
         <v>12</v>
       </c>
       <c r="C598" s="2">
-        <v>1626459138</v>
+        <v>1626458950</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E598" s="2">
-        <v>1649090231</v>
+        <v>1649090534</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -10619,13 +10620,13 @@
         <v>12</v>
       </c>
       <c r="C599" s="2">
-        <v>1626458950</v>
+        <v>1626459138</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E599" s="2">
-        <v>1649090534</v>
+        <v>1646679600</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -10633,16 +10634,16 @@
         <v>8</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C600" s="2">
-        <v>1626459138</v>
+        <v>1626459213</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E600" s="2">
-        <v>1646679600</v>
+        <v>1649350020</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -10653,13 +10654,13 @@
         <v>6</v>
       </c>
       <c r="C601" s="2">
-        <v>1626459213</v>
+        <v>1626459142</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E601" s="2">
-        <v>1649350020</v>
+        <v>1649351820</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -10670,30 +10671,30 @@
         <v>6</v>
       </c>
       <c r="C602" s="2">
-        <v>1626459141</v>
+        <v>1626459135</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E602" s="2">
-        <v>1649350380</v>
+        <v>1649350200</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C603" s="2">
-        <v>1626459135</v>
+        <v>1626459134</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E603" s="2">
-        <v>1649350200</v>
+        <v>1650301080</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
@@ -10710,7 +10711,7 @@
         <v>10</v>
       </c>
       <c r="E604" s="2">
-        <v>1650301080</v>
+        <v>1650299400</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
@@ -10718,16 +10719,16 @@
         <v>11</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C605" s="2">
-        <v>1626459134</v>
+        <v>1626459107</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E605" s="2">
-        <v>1650299400</v>
+        <v>1651509889</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
@@ -10738,13 +10739,13 @@
         <v>12</v>
       </c>
       <c r="C606" s="2">
-        <v>1626459107</v>
+        <v>1626459106</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E606" s="2">
-        <v>1651509889</v>
+        <v>1651509240</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
@@ -10755,30 +10756,30 @@
         <v>12</v>
       </c>
       <c r="C607" s="2">
-        <v>1626459106</v>
+        <v>1626459095</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E607" s="2">
-        <v>1651509240</v>
+        <v>1651529724</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C608" s="2">
-        <v>1626459095</v>
+        <v>1626459367</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E608" s="2">
-        <v>1651529724</v>
+        <v>1649350098</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -10789,13 +10790,13 @@
         <v>6</v>
       </c>
       <c r="C609" s="2">
-        <v>1626459367</v>
+        <v>1626459426</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E609" s="2">
-        <v>1649350098</v>
+        <v>1649695380</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -10806,13 +10807,13 @@
         <v>6</v>
       </c>
       <c r="C610" s="2">
-        <v>1626459426</v>
+        <v>1626459413</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E610" s="2">
-        <v>1649695380</v>
+        <v>1649698028</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
@@ -10823,13 +10824,13 @@
         <v>6</v>
       </c>
       <c r="C611" s="2">
-        <v>1626459413</v>
+        <v>1626459393</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E611" s="2">
-        <v>1649698028</v>
+        <v>1649695740</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
@@ -10840,30 +10841,30 @@
         <v>6</v>
       </c>
       <c r="C612" s="2">
-        <v>1626459393</v>
+        <v>1626459386</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E612" s="2">
-        <v>1649695740</v>
+        <v>1649695873</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C613" s="2">
-        <v>1626459386</v>
+        <v>1626459388</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E613" s="2">
-        <v>1649695873</v>
+        <v>1650559500</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
@@ -10874,30 +10875,30 @@
         <v>9</v>
       </c>
       <c r="C614" s="2">
-        <v>1626459388</v>
+        <v>1626459374</v>
       </c>
       <c r="D614" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E614" s="2">
-        <v>1650559500</v>
+        <v>1650559800</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C615" s="2">
-        <v>1626459374</v>
+        <v>1626459360</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E615" s="2">
-        <v>1650559800</v>
+        <v>1649090139</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
@@ -10908,13 +10909,13 @@
         <v>12</v>
       </c>
       <c r="C616" s="2">
-        <v>1626459360</v>
+        <v>1626459432</v>
       </c>
       <c r="D616" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E616" s="2">
-        <v>1649090139</v>
+        <v>1649349578</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
@@ -10925,13 +10926,13 @@
         <v>12</v>
       </c>
       <c r="C617" s="2">
-        <v>1626459432</v>
+        <v>1626459421</v>
       </c>
       <c r="D617" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E617" s="2">
-        <v>1649349578</v>
+        <v>1649696400</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
@@ -10942,13 +10943,13 @@
         <v>12</v>
       </c>
       <c r="C618" s="2">
-        <v>1626459421</v>
+        <v>1626459412</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E618" s="2">
-        <v>1649696400</v>
+        <v>1649350980</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -10959,13 +10960,13 @@
         <v>12</v>
       </c>
       <c r="C619" s="2">
-        <v>1626459412</v>
+        <v>1626459375</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E619" s="2">
-        <v>1649350980</v>
+        <v>1649090580</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -10976,13 +10977,13 @@
         <v>12</v>
       </c>
       <c r="C620" s="2">
-        <v>1626459375</v>
+        <v>1626459350</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E620" s="2">
-        <v>1649090580</v>
+        <v>1649090209</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
@@ -10990,16 +10991,16 @@
         <v>8</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C621" s="2">
-        <v>1626459350</v>
+        <v>1626459426</v>
       </c>
       <c r="D621" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E621" s="2">
-        <v>1649090209</v>
+        <v>1649695500</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
@@ -11010,13 +11011,13 @@
         <v>6</v>
       </c>
       <c r="C622" s="2">
-        <v>1626459426</v>
+        <v>1626459421</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E622" s="2">
-        <v>1649695500</v>
+        <v>1649695740</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
@@ -11027,13 +11028,13 @@
         <v>6</v>
       </c>
       <c r="C623" s="2">
-        <v>1626459421</v>
+        <v>1626459416</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E623" s="2">
-        <v>1649695740</v>
+        <v>1649695620</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -11044,13 +11045,13 @@
         <v>6</v>
       </c>
       <c r="C624" s="2">
-        <v>1626459416</v>
+        <v>1626459402</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E624" s="2">
-        <v>1649695620</v>
+        <v>1649696040</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
@@ -11061,7 +11062,7 @@
         <v>6</v>
       </c>
       <c r="C625" s="2">
-        <v>1626459402</v>
+        <v>1626459399</v>
       </c>
       <c r="D625" s="1" t="s">
         <v>10</v>
@@ -11078,13 +11079,13 @@
         <v>6</v>
       </c>
       <c r="C626" s="2">
-        <v>1626459399</v>
+        <v>1626459398</v>
       </c>
       <c r="D626" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E626" s="2">
-        <v>1649696040</v>
+        <v>1649696700</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
@@ -11095,13 +11096,13 @@
         <v>6</v>
       </c>
       <c r="C627" s="2">
-        <v>1626459398</v>
+        <v>1626459392</v>
       </c>
       <c r="D627" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E627" s="2">
-        <v>1649696700</v>
+        <v>1649695537</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -11118,7 +11119,7 @@
         <v>10</v>
       </c>
       <c r="E628" s="2">
-        <v>1649695537</v>
+        <v>1649695860</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
@@ -11129,13 +11130,13 @@
         <v>6</v>
       </c>
       <c r="C629" s="2">
-        <v>1626459392</v>
+        <v>1626459430</v>
       </c>
       <c r="D629" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E629" s="2">
-        <v>1649695860</v>
+        <v>1649695750</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -11146,13 +11147,13 @@
         <v>6</v>
       </c>
       <c r="C630" s="2">
-        <v>1626459430</v>
+        <v>1626459355</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E630" s="2">
-        <v>1649695750</v>
+        <v>1649353440</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
@@ -11163,30 +11164,30 @@
         <v>6</v>
       </c>
       <c r="C631" s="2">
-        <v>1626459355</v>
+        <v>1626459352</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E631" s="2">
-        <v>1649353440</v>
+        <v>1649695676</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C632" s="2">
-        <v>1626459352</v>
+        <v>1626459429</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E632" s="2">
-        <v>1649695676</v>
+        <v>1650559715</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
@@ -11197,30 +11198,30 @@
         <v>9</v>
       </c>
       <c r="C633" s="2">
-        <v>1626459429</v>
+        <v>1626459356</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E633" s="2">
-        <v>1650559715</v>
+        <v>1650559800</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C634" s="2">
-        <v>1626459356</v>
+        <v>1626459908</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E634" s="2">
-        <v>1650559800</v>
+        <v>1649696040</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
@@ -11231,47 +11232,47 @@
         <v>6</v>
       </c>
       <c r="C635" s="2">
-        <v>1626459908</v>
+        <v>1626459877</v>
       </c>
       <c r="D635" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E635" s="2">
-        <v>1649696040</v>
+        <v>1649702711</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C636" s="2">
-        <v>1626459877</v>
+        <v>1626459883</v>
       </c>
       <c r="D636" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E636" s="2">
-        <v>1649702711</v>
+        <v>1649695090</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C637" s="2">
-        <v>1626459883</v>
+        <v>1626459898</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E637" s="2">
-        <v>1649695090</v>
+        <v>1650904320</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
@@ -11282,30 +11283,30 @@
         <v>9</v>
       </c>
       <c r="C638" s="2">
-        <v>1626459898</v>
+        <v>1626459840</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E638" s="2">
-        <v>1650904320</v>
+        <v>1650559500</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C639" s="2">
-        <v>1626459840</v>
+        <v>1626459916</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E639" s="2">
-        <v>1650559500</v>
+        <v>1649696130</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -11313,16 +11314,16 @@
         <v>8</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C640" s="2">
-        <v>1626459916</v>
+        <v>1626459899</v>
       </c>
       <c r="D640" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E640" s="2">
-        <v>1649696130</v>
+        <v>1649369938</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -11330,33 +11331,33 @@
         <v>8</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C641" s="2">
-        <v>1626459899</v>
+        <v>1626460055</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E641" s="2">
-        <v>1649369938</v>
+        <v>1649698222</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C642" s="2">
-        <v>1626460055</v>
+        <v>1626460320</v>
       </c>
       <c r="D642" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E642" s="2">
-        <v>1649698222</v>
+        <v>1649694660</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
@@ -11378,19 +11379,19 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C644" s="2">
-        <v>1626460320</v>
+        <v>1626460373</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E644" s="2">
-        <v>1649694660</v>
+        <v>1649695500</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
@@ -11398,16 +11399,16 @@
         <v>8</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C645" s="2">
-        <v>1626460373</v>
+        <v>1626460183</v>
       </c>
       <c r="D645" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E645" s="2">
-        <v>1649695500</v>
+        <v>1649356920</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
@@ -11415,16 +11416,16 @@
         <v>8</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C646" s="2">
-        <v>1626460183</v>
+        <v>1626460038</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E646" s="2">
-        <v>1649356920</v>
+        <v>1649705762</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
@@ -11432,16 +11433,16 @@
         <v>8</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C647" s="2">
-        <v>1626460038</v>
+        <v>1626460349</v>
       </c>
       <c r="D647" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E647" s="2">
-        <v>1649705762</v>
+        <v>1649349660</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
@@ -11452,13 +11453,13 @@
         <v>12</v>
       </c>
       <c r="C648" s="2">
-        <v>1626460349</v>
+        <v>1626460344</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E648" s="2">
-        <v>1649349660</v>
+        <v>1649356680</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
@@ -11466,16 +11467,16 @@
         <v>8</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C649" s="2">
-        <v>1626460344</v>
+        <v>1626460348</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E649" s="2">
-        <v>1649356680</v>
+        <v>1649697310</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
@@ -11486,47 +11487,47 @@
         <v>6</v>
       </c>
       <c r="C650" s="2">
-        <v>1626460348</v>
+        <v>1626460313</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E650" s="2">
-        <v>1649697310</v>
+        <v>1649695620</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C651" s="2">
-        <v>1626460313</v>
+        <v>1626460474</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E651" s="2">
-        <v>1649695620</v>
+        <v>1650882600</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C652" s="2">
-        <v>1626460474</v>
+        <v>1626460450</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E652" s="2">
-        <v>1650882600</v>
+        <v>1649695800</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
@@ -11537,13 +11538,13 @@
         <v>6</v>
       </c>
       <c r="C653" s="2">
-        <v>1626460450</v>
+        <v>1626460596</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E653" s="2">
-        <v>1649695800</v>
+        <v>1649954760</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
@@ -11554,13 +11555,13 @@
         <v>6</v>
       </c>
       <c r="C654" s="2">
-        <v>1626460596</v>
+        <v>1626460537</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E654" s="2">
-        <v>1649954760</v>
+        <v>1649695500</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
@@ -11571,13 +11572,13 @@
         <v>6</v>
       </c>
       <c r="C655" s="2">
-        <v>1626460537</v>
+        <v>1626460522</v>
       </c>
       <c r="D655" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E655" s="2">
-        <v>1649695500</v>
+        <v>1649697370</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
@@ -11588,30 +11589,30 @@
         <v>6</v>
       </c>
       <c r="C656" s="2">
-        <v>1626460522</v>
+        <v>1626460515</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E656" s="2">
-        <v>1649697370</v>
+        <v>1649696100</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C657" s="2">
-        <v>1626460515</v>
+        <v>1626460530</v>
       </c>
       <c r="D657" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E657" s="2">
-        <v>1649696100</v>
+        <v>1650904308</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
@@ -11622,30 +11623,30 @@
         <v>9</v>
       </c>
       <c r="C658" s="2">
-        <v>1626460530</v>
+        <v>1626460477</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E658" s="2">
-        <v>1650904308</v>
+        <v>1650904320</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C659" s="2">
-        <v>1626460477</v>
+        <v>1626460536</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E659" s="2">
-        <v>1650904320</v>
+        <v>1649349360</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
@@ -11656,13 +11657,13 @@
         <v>12</v>
       </c>
       <c r="C660" s="2">
-        <v>1626460536</v>
+        <v>1626460472</v>
       </c>
       <c r="D660" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E660" s="2">
-        <v>1649349360</v>
+        <v>1649349681</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
@@ -11673,13 +11674,13 @@
         <v>12</v>
       </c>
       <c r="C661" s="2">
-        <v>1626460472</v>
+        <v>1626460440</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E661" s="2">
-        <v>1649349681</v>
+        <v>1649349720</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
@@ -11690,13 +11691,13 @@
         <v>12</v>
       </c>
       <c r="C662" s="2">
-        <v>1626460440</v>
+        <v>1626460421</v>
       </c>
       <c r="D662" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E662" s="2">
-        <v>1649349720</v>
+        <v>1649349301</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
@@ -11704,16 +11705,16 @@
         <v>8</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C663" s="2">
-        <v>1626460421</v>
+        <v>1626460598</v>
       </c>
       <c r="D663" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E663" s="2">
-        <v>1649349301</v>
+        <v>1649954700</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
@@ -11724,7 +11725,7 @@
         <v>6</v>
       </c>
       <c r="C664" s="2">
-        <v>1626460598</v>
+        <v>1626460595</v>
       </c>
       <c r="D664" s="1" t="s">
         <v>10</v>
@@ -11741,13 +11742,13 @@
         <v>6</v>
       </c>
       <c r="C665" s="2">
-        <v>1626460595</v>
+        <v>1626460544</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E665" s="2">
-        <v>1649954700</v>
+        <v>1649696100</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
@@ -11758,13 +11759,13 @@
         <v>6</v>
       </c>
       <c r="C666" s="2">
-        <v>1626460544</v>
+        <v>1626460532</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E666" s="2">
-        <v>1649696100</v>
+        <v>1649707819</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.3">
@@ -11775,13 +11776,13 @@
         <v>6</v>
       </c>
       <c r="C667" s="2">
-        <v>1626460532</v>
+        <v>1626460531</v>
       </c>
       <c r="D667" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E667" s="2">
-        <v>1649707819</v>
+        <v>1649696040</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.3">
@@ -11792,13 +11793,13 @@
         <v>6</v>
       </c>
       <c r="C668" s="2">
-        <v>1626460531</v>
+        <v>1626460528</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E668" s="2">
-        <v>1649696040</v>
+        <v>1649695800</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.3">
@@ -11809,13 +11810,13 @@
         <v>6</v>
       </c>
       <c r="C669" s="2">
-        <v>1626460528</v>
+        <v>1626460510</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E669" s="2">
-        <v>1649695800</v>
+        <v>1649696720</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.3">
@@ -11826,30 +11827,30 @@
         <v>6</v>
       </c>
       <c r="C670" s="2">
-        <v>1626460510</v>
+        <v>1626460481</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E670" s="2">
-        <v>1649696720</v>
+        <v>1649695560</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C671" s="2">
-        <v>1626460481</v>
+        <v>1626460544</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E671" s="2">
-        <v>1649695560</v>
+        <v>1650904315</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.3">
@@ -11860,13 +11861,13 @@
         <v>9</v>
       </c>
       <c r="C672" s="2">
-        <v>1626460544</v>
+        <v>1626460530</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E672" s="2">
-        <v>1650904315</v>
+        <v>1650920160</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
@@ -11877,13 +11878,13 @@
         <v>9</v>
       </c>
       <c r="C673" s="2">
-        <v>1626460530</v>
+        <v>1626460517</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E673" s="2">
-        <v>1650920160</v>
+        <v>1650904295</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.3">
@@ -11894,13 +11895,13 @@
         <v>9</v>
       </c>
       <c r="C674" s="2">
-        <v>1626460517</v>
+        <v>1626460500</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E674" s="2">
-        <v>1650904295</v>
+        <v>1650904333</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
@@ -11911,13 +11912,13 @@
         <v>9</v>
       </c>
       <c r="C675" s="2">
-        <v>1626460500</v>
+        <v>1626460478</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E675" s="2">
-        <v>1650904333</v>
+        <v>1650904200</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.3">
@@ -11928,7 +11929,7 @@
         <v>9</v>
       </c>
       <c r="C676" s="2">
-        <v>1626460478</v>
+        <v>1626460469</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>10</v>
@@ -11939,19 +11940,19 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C677" s="2">
-        <v>1626460469</v>
+        <v>1626461040</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E677" s="2">
-        <v>1650904200</v>
+        <v>1649954640</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
@@ -11959,16 +11960,16 @@
         <v>8</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C678" s="2">
-        <v>1626461040</v>
+        <v>1626461097</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E678" s="2">
-        <v>1649954640</v>
+        <v>1649692855</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
@@ -11976,16 +11977,16 @@
         <v>8</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C679" s="2">
-        <v>1626461097</v>
+        <v>1626461147</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E679" s="2">
-        <v>1649692855</v>
+        <v>1649954654</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
@@ -11993,16 +11994,16 @@
         <v>8</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C680" s="2">
-        <v>1626461147</v>
+        <v>1626461455</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E680" s="2">
-        <v>1649954654</v>
+        <v>1649695140</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
@@ -12013,13 +12014,13 @@
         <v>12</v>
       </c>
       <c r="C681" s="2">
-        <v>1626461455</v>
+        <v>1626461435</v>
       </c>
       <c r="D681" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E681" s="2">
-        <v>1649695140</v>
+        <v>1649694962</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
@@ -12030,13 +12031,13 @@
         <v>12</v>
       </c>
       <c r="C682" s="2">
-        <v>1626461435</v>
+        <v>1626461152</v>
       </c>
       <c r="D682" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E682" s="2">
-        <v>1649694962</v>
+        <v>1649696662</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
@@ -12044,16 +12045,16 @@
         <v>8</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C683" s="2">
-        <v>1626461152</v>
+        <v>1626461442</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E683" s="2">
-        <v>1649696662</v>
+        <v>1649954940</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
@@ -12064,13 +12065,13 @@
         <v>6</v>
       </c>
       <c r="C684" s="2">
-        <v>1626461442</v>
+        <v>1626461431</v>
       </c>
       <c r="D684" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E684" s="2">
-        <v>1649954940</v>
+        <v>1649954640</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
@@ -12081,64 +12082,64 @@
         <v>6</v>
       </c>
       <c r="C685" s="2">
-        <v>1626461431</v>
+        <v>1626461130</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E685" s="2">
-        <v>1649954640</v>
+        <v>1649954880</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C686" s="2">
-        <v>1626461130</v>
+        <v>1626461144</v>
       </c>
       <c r="D686" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E686" s="2">
-        <v>1649954880</v>
+        <v>1649695064</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C687" s="2">
-        <v>1626461144</v>
+        <v>1626461447</v>
       </c>
       <c r="D687" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E687" s="2">
-        <v>1649695064</v>
+        <v>1651178283</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C688" s="2">
-        <v>1626461447</v>
+        <v>1626461401</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E688" s="2">
-        <v>1651178283</v>
+        <v>1649695012</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
@@ -12146,16 +12147,16 @@
         <v>8</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C689" s="2">
-        <v>1626461401</v>
+        <v>1626461449</v>
       </c>
       <c r="D689" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E689" s="2">
-        <v>1649695012</v>
+        <v>1649954880</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
@@ -12163,50 +12164,50 @@
         <v>8</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C690" s="2">
-        <v>1626461449</v>
+        <v>1626461659</v>
       </c>
       <c r="D690" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E690" s="2">
-        <v>1649954880</v>
+        <v>1649695140</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C691" s="2">
-        <v>1626461659</v>
+        <v>1626461780</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E691" s="2">
-        <v>1649695140</v>
+        <v>1649914260</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C692" s="2">
-        <v>1626461780</v>
+        <v>1626461808</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E692" s="2">
-        <v>1649914260</v>
+        <v>1649695533</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
@@ -12217,13 +12218,13 @@
         <v>12</v>
       </c>
       <c r="C693" s="2">
-        <v>1626461808</v>
+        <v>1626461585</v>
       </c>
       <c r="D693" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E693" s="2">
-        <v>1649695533</v>
+        <v>1649695758</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
@@ -12234,13 +12235,13 @@
         <v>12</v>
       </c>
       <c r="C694" s="2">
-        <v>1626461585</v>
+        <v>1626462017</v>
       </c>
       <c r="D694" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E694" s="2">
-        <v>1649695758</v>
+        <v>1649695080</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
@@ -12251,13 +12252,13 @@
         <v>12</v>
       </c>
       <c r="C695" s="2">
-        <v>1626462017</v>
+        <v>1626461983</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E695" s="2">
-        <v>1649695080</v>
+        <v>1649690321</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
@@ -12265,16 +12266,16 @@
         <v>8</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C696" s="2">
-        <v>1626461983</v>
+        <v>1626462088</v>
       </c>
       <c r="D696" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E696" s="2">
-        <v>1649690321</v>
+        <v>1649954650</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
@@ -12285,13 +12286,13 @@
         <v>6</v>
       </c>
       <c r="C697" s="2">
-        <v>1626462088</v>
+        <v>1626462019</v>
       </c>
       <c r="D697" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E697" s="2">
-        <v>1649954650</v>
+        <v>1649954957</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
@@ -12302,30 +12303,30 @@
         <v>6</v>
       </c>
       <c r="C698" s="2">
-        <v>1626462019</v>
+        <v>1626462016</v>
       </c>
       <c r="D698" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E698" s="2">
-        <v>1649954957</v>
+        <v>1649954764</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C699" s="2">
-        <v>1626462016</v>
+        <v>1626462004</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E699" s="2">
-        <v>1649954764</v>
+        <v>1651510742</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
@@ -12336,30 +12337,30 @@
         <v>9</v>
       </c>
       <c r="C700" s="2">
-        <v>1626462004</v>
+        <v>1626461948</v>
       </c>
       <c r="D700" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E700" s="2">
-        <v>1651510742</v>
+        <v>1651165448</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C701" s="2">
-        <v>1626461948</v>
+        <v>1626462017</v>
       </c>
       <c r="D701" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E701" s="2">
-        <v>1651165448</v>
+        <v>1649342220</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
@@ -12370,13 +12371,13 @@
         <v>12</v>
       </c>
       <c r="C702" s="2">
-        <v>1626462017</v>
+        <v>1626462006</v>
       </c>
       <c r="D702" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E702" s="2">
-        <v>1649342220</v>
+        <v>1649695090</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.3">
@@ -12387,13 +12388,13 @@
         <v>12</v>
       </c>
       <c r="C703" s="2">
-        <v>1626462006</v>
+        <v>1626462000</v>
       </c>
       <c r="D703" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E703" s="2">
-        <v>1649695090</v>
+        <v>1649695200</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
@@ -12404,13 +12405,13 @@
         <v>12</v>
       </c>
       <c r="C704" s="2">
-        <v>1626462000</v>
+        <v>1626461996</v>
       </c>
       <c r="D704" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E704" s="2">
-        <v>1649695200</v>
+        <v>1649700437</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
@@ -12418,16 +12419,16 @@
         <v>8</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C705" s="2">
-        <v>1626461996</v>
+        <v>1626462101</v>
       </c>
       <c r="D705" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E705" s="2">
-        <v>1649700437</v>
+        <v>1649954640</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
@@ -12438,13 +12439,13 @@
         <v>6</v>
       </c>
       <c r="C706" s="2">
-        <v>1626462101</v>
+        <v>1626462001</v>
       </c>
       <c r="D706" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E706" s="2">
-        <v>1649954640</v>
+        <v>1649955136</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
@@ -12455,47 +12456,47 @@
         <v>6</v>
       </c>
       <c r="C707" s="2">
-        <v>1626462001</v>
+        <v>1626461987</v>
       </c>
       <c r="D707" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E707" s="2">
-        <v>1649955136</v>
+        <v>1649955307</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C708" s="2">
-        <v>1626461987</v>
+        <v>1626461884</v>
       </c>
       <c r="D708" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E708" s="2">
-        <v>1649955307</v>
+        <v>1649953800</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C709" s="2">
-        <v>1626461884</v>
+        <v>1626462299</v>
       </c>
       <c r="D709" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E709" s="2">
-        <v>1649953800</v>
+        <v>1649695918</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
@@ -12503,16 +12504,16 @@
         <v>8</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C710" s="2">
-        <v>1626462373</v>
+        <v>1626462187</v>
       </c>
       <c r="D710" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E710" s="2">
-        <v>1649954880</v>
+        <v>1649702280</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
@@ -12523,13 +12524,13 @@
         <v>12</v>
       </c>
       <c r="C711" s="2">
-        <v>1626462187</v>
+        <v>1626462307</v>
       </c>
       <c r="D711" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E711" s="2">
-        <v>1649702280</v>
+        <v>1649697395</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.3">
@@ -12540,13 +12541,13 @@
         <v>12</v>
       </c>
       <c r="C712" s="2">
-        <v>1626462307</v>
+        <v>1626462278</v>
       </c>
       <c r="D712" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E712" s="2">
-        <v>1649697395</v>
+        <v>1649694840</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
@@ -12554,16 +12555,16 @@
         <v>8</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C713" s="2">
-        <v>1626462299</v>
+        <v>1626462395</v>
       </c>
       <c r="D713" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E713" s="2">
-        <v>1649695918</v>
+        <v>1649958118</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
@@ -12571,16 +12572,16 @@
         <v>8</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C714" s="2">
-        <v>1626462278</v>
+        <v>1626462373</v>
       </c>
       <c r="D714" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E714" s="2">
-        <v>1649694840</v>
+        <v>1649954880</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
@@ -12591,13 +12592,13 @@
         <v>6</v>
       </c>
       <c r="C715" s="2">
-        <v>1626462395</v>
+        <v>1626462352</v>
       </c>
       <c r="D715" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E715" s="2">
-        <v>1649958118</v>
+        <v>1649955051</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
@@ -12608,13 +12609,13 @@
         <v>6</v>
       </c>
       <c r="C716" s="2">
-        <v>1626462352</v>
+        <v>1626462348</v>
       </c>
       <c r="D716" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E716" s="2">
-        <v>1649955051</v>
+        <v>1649954881</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
@@ -12625,13 +12626,13 @@
         <v>6</v>
       </c>
       <c r="C717" s="2">
-        <v>1626462348</v>
+        <v>1626462317</v>
       </c>
       <c r="D717" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E717" s="2">
-        <v>1649954881</v>
+        <v>1649955000</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
@@ -12642,13 +12643,13 @@
         <v>6</v>
       </c>
       <c r="C718" s="2">
-        <v>1626462317</v>
+        <v>1626462269</v>
       </c>
       <c r="D718" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E718" s="2">
-        <v>1649955000</v>
+        <v>1649955060</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
@@ -12659,47 +12660,47 @@
         <v>6</v>
       </c>
       <c r="C719" s="2">
-        <v>1626462269</v>
+        <v>1626462235</v>
       </c>
       <c r="D719" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E719" s="2">
-        <v>1649955060</v>
+        <v>1649955000</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C720" s="2">
-        <v>1626462235</v>
+        <v>1626462356</v>
       </c>
       <c r="D720" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E720" s="2">
-        <v>1649955000</v>
+        <v>1649953860</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C721" s="2">
-        <v>1626462356</v>
+        <v>1626462349</v>
       </c>
       <c r="D721" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E721" s="2">
-        <v>1649953860</v>
+        <v>1651509000</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
@@ -12710,30 +12711,30 @@
         <v>9</v>
       </c>
       <c r="C722" s="2">
-        <v>1626462349</v>
+        <v>1626462310</v>
       </c>
       <c r="D722" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E722" s="2">
-        <v>1651509000</v>
+        <v>1651509033</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C723" s="2">
-        <v>1626462310</v>
+        <v>1626462594</v>
       </c>
       <c r="D723" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E723" s="2">
-        <v>1651509033</v>
+        <v>1649704585</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
@@ -12741,16 +12742,16 @@
         <v>8</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C724" s="2">
-        <v>1626462816</v>
+        <v>1626462830</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E724" s="2">
-        <v>1649954638</v>
+        <v>1649694787</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
@@ -12758,16 +12759,16 @@
         <v>8</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C725" s="2">
-        <v>1626462830</v>
+        <v>1626462816</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E725" s="2">
-        <v>1649694787</v>
+        <v>1649954638</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
@@ -12789,36 +12790,36 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C727" s="2">
-        <v>1626462594</v>
+        <v>1626462815</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E727" s="2">
-        <v>1649704585</v>
+        <v>1649953822</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C728" s="2">
-        <v>1626462815</v>
+        <v>1626462780</v>
       </c>
       <c r="D728" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E728" s="2">
-        <v>1649953822</v>
+        <v>1649954580</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
@@ -12829,30 +12830,30 @@
         <v>6</v>
       </c>
       <c r="C729" s="2">
-        <v>1626462780</v>
+        <v>1626462669</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E729" s="2">
-        <v>1649954580</v>
+        <v>1649954649</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C730" s="2">
-        <v>1626462669</v>
+        <v>1626462816</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E730" s="2">
-        <v>1649954649</v>
+        <v>1651509410</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.3">
@@ -12863,30 +12864,30 @@
         <v>9</v>
       </c>
       <c r="C731" s="2">
-        <v>1626462816</v>
+        <v>1626462600</v>
       </c>
       <c r="D731" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E731" s="2">
-        <v>1651509410</v>
+        <v>1651509000</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C732" s="2">
-        <v>1626462600</v>
+        <v>1626463186</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E732" s="2">
-        <v>1651509000</v>
+        <v>1650304080</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.3">
@@ -12897,13 +12898,13 @@
         <v>6</v>
       </c>
       <c r="C733" s="2">
-        <v>1626463186</v>
+        <v>1626462900</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E733" s="2">
-        <v>1650304080</v>
+        <v>1650307860</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.3">
@@ -12911,16 +12912,16 @@
         <v>8</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C734" s="2">
-        <v>1626462900</v>
+        <v>1626463139</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E734" s="2">
-        <v>1650307860</v>
+        <v>1649694929</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.3">
@@ -12931,13 +12932,13 @@
         <v>12</v>
       </c>
       <c r="C735" s="2">
-        <v>1626463139</v>
+        <v>1626462923</v>
       </c>
       <c r="D735" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E735" s="2">
-        <v>1649694929</v>
+        <v>1649694840</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.3">
@@ -12945,16 +12946,16 @@
         <v>8</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C736" s="2">
-        <v>1626462923</v>
+        <v>1626463256</v>
       </c>
       <c r="D736" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E736" s="2">
-        <v>1649694840</v>
+        <v>1650300780</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.3">
@@ -12965,13 +12966,13 @@
         <v>6</v>
       </c>
       <c r="C737" s="2">
-        <v>1626463256</v>
+        <v>1626463175</v>
       </c>
       <c r="D737" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E737" s="2">
-        <v>1650300780</v>
+        <v>1650300360</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.3">
@@ -12982,13 +12983,13 @@
         <v>6</v>
       </c>
       <c r="C738" s="2">
-        <v>1626463175</v>
+        <v>1626463111</v>
       </c>
       <c r="D738" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E738" s="2">
-        <v>1650300360</v>
+        <v>1650300918</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.3">
@@ -12999,13 +13000,13 @@
         <v>6</v>
       </c>
       <c r="C739" s="2">
-        <v>1626463111</v>
+        <v>1626463099</v>
       </c>
       <c r="D739" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E739" s="2">
-        <v>1650300918</v>
+        <v>1650313077</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.3">
@@ -13016,13 +13017,13 @@
         <v>6</v>
       </c>
       <c r="C740" s="2">
-        <v>1626463099</v>
+        <v>1626462912</v>
       </c>
       <c r="D740" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E740" s="2">
-        <v>1650313077</v>
+        <v>1650300420</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.3">
@@ -13033,13 +13034,13 @@
         <v>6</v>
       </c>
       <c r="C741" s="2">
-        <v>1626462912</v>
+        <v>1626463504</v>
       </c>
       <c r="D741" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E741" s="2">
-        <v>1650300420</v>
+        <v>1650304800</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.3">
@@ -13047,16 +13048,16 @@
         <v>8</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C742" s="2">
-        <v>1626463504</v>
+        <v>1626463497</v>
       </c>
       <c r="D742" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E742" s="2">
-        <v>1650304800</v>
+        <v>1649954117</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.3">
@@ -13064,16 +13065,16 @@
         <v>8</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C743" s="2">
-        <v>1626463497</v>
+        <v>1626463554</v>
       </c>
       <c r="D743" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E743" s="2">
-        <v>1649954117</v>
+        <v>1650316221</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.3">
@@ -13084,13 +13085,13 @@
         <v>6</v>
       </c>
       <c r="C744" s="2">
-        <v>1626463554</v>
+        <v>1626463535</v>
       </c>
       <c r="D744" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E744" s="2">
-        <v>1650316221</v>
+        <v>1650300484</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.3">
@@ -13101,13 +13102,13 @@
         <v>6</v>
       </c>
       <c r="C745" s="2">
-        <v>1626463535</v>
+        <v>1626463518</v>
       </c>
       <c r="D745" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E745" s="2">
-        <v>1650300484</v>
+        <v>1650300548</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.3">
@@ -13115,16 +13116,16 @@
         <v>8</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C746" s="2">
-        <v>1626463518</v>
+        <v>1626463479</v>
       </c>
       <c r="D746" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E746" s="2">
-        <v>1650300548</v>
+        <v>1649954220</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.3">
@@ -13132,16 +13133,16 @@
         <v>8</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C747" s="2">
-        <v>1626463479</v>
+        <v>1626463490</v>
       </c>
       <c r="D747" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E747" s="2">
-        <v>1649954220</v>
+        <v>1650300420</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.3">
@@ -13152,13 +13153,13 @@
         <v>6</v>
       </c>
       <c r="C748" s="2">
-        <v>1626463490</v>
+        <v>1626463487</v>
       </c>
       <c r="D748" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E748" s="2">
-        <v>1650300420</v>
+        <v>1650300720</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.3">
@@ -13169,13 +13170,13 @@
         <v>6</v>
       </c>
       <c r="C749" s="2">
-        <v>1626463487</v>
+        <v>1626463740</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E749" s="2">
-        <v>1650300720</v>
+        <v>1650300863</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.3">
@@ -13183,16 +13184,16 @@
         <v>8</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C750" s="2">
-        <v>1626463740</v>
+        <v>1626463920</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E750" s="2">
-        <v>1650300863</v>
+        <v>1649954400</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.3">
@@ -13203,13 +13204,13 @@
         <v>12</v>
       </c>
       <c r="C751" s="2">
-        <v>1626463920</v>
+        <v>1626463919</v>
       </c>
       <c r="D751" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E751" s="2">
-        <v>1649954400</v>
+        <v>1649954220</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.3">
@@ -13220,13 +13221,13 @@
         <v>12</v>
       </c>
       <c r="C752" s="2">
-        <v>1626463919</v>
+        <v>1626463860</v>
       </c>
       <c r="D752" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E752" s="2">
-        <v>1649954220</v>
+        <v>1649954012</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.3">
@@ -13237,13 +13238,13 @@
         <v>12</v>
       </c>
       <c r="C753" s="2">
-        <v>1626463860</v>
+        <v>1626463744</v>
       </c>
       <c r="D753" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E753" s="2">
-        <v>1649954012</v>
+        <v>1649954365</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.3">
@@ -13254,13 +13255,13 @@
         <v>12</v>
       </c>
       <c r="C754" s="2">
-        <v>1626463744</v>
+        <v>1626463908</v>
       </c>
       <c r="D754" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E754" s="2">
-        <v>1649954365</v>
+        <v>1649954220</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.3">
@@ -13271,13 +13272,13 @@
         <v>12</v>
       </c>
       <c r="C755" s="2">
-        <v>1626463908</v>
+        <v>1626463860</v>
       </c>
       <c r="D755" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E755" s="2">
-        <v>1649954220</v>
+        <v>1649954340</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.3">
@@ -13288,13 +13289,13 @@
         <v>12</v>
       </c>
       <c r="C756" s="2">
-        <v>1626463860</v>
+        <v>1626463763</v>
       </c>
       <c r="D756" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E756" s="2">
-        <v>1649954340</v>
+        <v>1649954475</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.3">
@@ -13305,13 +13306,13 @@
         <v>12</v>
       </c>
       <c r="C757" s="2">
-        <v>1626463763</v>
+        <v>1626463800</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E757" s="2">
-        <v>1649954475</v>
+        <v>1647880560</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.3">
@@ -13319,16 +13320,16 @@
         <v>8</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C758" s="2">
-        <v>1626463800</v>
+        <v>1626463860</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E758" s="2">
-        <v>1647880560</v>
+        <v>1650300960</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.3">
@@ -13336,50 +13337,50 @@
         <v>8</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C759" s="2">
-        <v>1626463860</v>
+        <v>1626463923</v>
       </c>
       <c r="D759" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E759" s="2">
-        <v>1650300960</v>
+        <v>1649954541</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C760" s="2">
-        <v>1626463923</v>
+        <v>1626463961</v>
       </c>
       <c r="D760" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E760" s="2">
-        <v>1649954541</v>
+        <v>1649694629</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C761" s="2">
-        <v>1626463961</v>
+        <v>1626464115</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E761" s="2">
-        <v>1649694629</v>
+        <v>1649954100</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.3">
@@ -13387,16 +13388,16 @@
         <v>8</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C762" s="2">
-        <v>1626464115</v>
+        <v>1626464005</v>
       </c>
       <c r="D762" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E762" s="2">
-        <v>1649954100</v>
+        <v>1650300420</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.3">
@@ -13404,16 +13405,16 @@
         <v>8</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C763" s="2">
-        <v>1626464005</v>
+        <v>1626464171</v>
       </c>
       <c r="D763" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E763" s="2">
-        <v>1650300420</v>
+        <v>1649954467</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.3">
@@ -13424,13 +13425,13 @@
         <v>12</v>
       </c>
       <c r="C764" s="2">
-        <v>1626464171</v>
+        <v>1626464124</v>
       </c>
       <c r="D764" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E764" s="2">
-        <v>1649954467</v>
+        <v>1649954075</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.3">
@@ -13441,13 +13442,13 @@
         <v>12</v>
       </c>
       <c r="C765" s="2">
-        <v>1626464124</v>
+        <v>1626464217</v>
       </c>
       <c r="D765" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E765" s="2">
-        <v>1649954075</v>
+        <v>1649955600</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.3">
@@ -13458,13 +13459,13 @@
         <v>12</v>
       </c>
       <c r="C766" s="2">
-        <v>1626464217</v>
+        <v>1626464020</v>
       </c>
       <c r="D766" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E766" s="2">
-        <v>1649955600</v>
+        <v>1649954280</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.3">
@@ -13472,16 +13473,16 @@
         <v>8</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C767" s="2">
-        <v>1626464020</v>
+        <v>1626464073</v>
       </c>
       <c r="D767" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E767" s="2">
-        <v>1649954280</v>
+        <v>1650300742</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.3">
@@ -13492,47 +13493,47 @@
         <v>6</v>
       </c>
       <c r="C768" s="2">
-        <v>1626464073</v>
+        <v>1626463996</v>
       </c>
       <c r="D768" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E768" s="2">
-        <v>1650300742</v>
+        <v>1650301753</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C769" s="2">
-        <v>1626463996</v>
+        <v>1626464119</v>
       </c>
       <c r="D769" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E769" s="2">
-        <v>1650301753</v>
+        <v>1649694600</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C770" s="2">
-        <v>1626464119</v>
+        <v>1626464679</v>
       </c>
       <c r="D770" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E770" s="2">
-        <v>1649694600</v>
+        <v>1650558995</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.3">
@@ -13540,16 +13541,16 @@
         <v>8</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C771" s="2">
-        <v>1626464513</v>
+        <v>1626464450</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E771" s="2">
-        <v>1650304260</v>
+        <v>1647279109</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.3">
@@ -13560,13 +13561,13 @@
         <v>9</v>
       </c>
       <c r="C772" s="2">
-        <v>1626464450</v>
+        <v>1626464520</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E772" s="2">
-        <v>1647279109</v>
+        <v>1650904274</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.3">
@@ -13574,16 +13575,16 @@
         <v>8</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C773" s="2">
-        <v>1626464520</v>
+        <v>1626464486</v>
       </c>
       <c r="D773" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E773" s="2">
-        <v>1650904274</v>
+        <v>1650300060</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.3">
@@ -13594,13 +13595,13 @@
         <v>12</v>
       </c>
       <c r="C774" s="2">
-        <v>1626464486</v>
+        <v>1626464545</v>
       </c>
       <c r="D774" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E774" s="2">
-        <v>1650300060</v>
+        <v>1650310130</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.3">
@@ -13608,16 +13609,16 @@
         <v>8</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C775" s="2">
-        <v>1626464679</v>
+        <v>1626464513</v>
       </c>
       <c r="D775" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E775" s="2">
-        <v>1650558995</v>
+        <v>1650304260</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.3">
@@ -13625,16 +13626,16 @@
         <v>8</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C776" s="2">
-        <v>1626464545</v>
+        <v>1626464675</v>
       </c>
       <c r="D776" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E776" s="2">
-        <v>1650310130</v>
+        <v>1650559074</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.3">
@@ -13645,13 +13646,13 @@
         <v>6</v>
       </c>
       <c r="C777" s="2">
-        <v>1626464675</v>
+        <v>1626464648</v>
       </c>
       <c r="D777" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E777" s="2">
-        <v>1650559074</v>
+        <v>1650562800</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.3">
@@ -13662,13 +13663,13 @@
         <v>6</v>
       </c>
       <c r="C778" s="2">
-        <v>1626464648</v>
+        <v>1626464503</v>
       </c>
       <c r="D778" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E778" s="2">
-        <v>1650562800</v>
+        <v>1650558720</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.3">
@@ -13679,13 +13680,13 @@
         <v>6</v>
       </c>
       <c r="C779" s="2">
-        <v>1626464503</v>
+        <v>1626464421</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E779" s="2">
-        <v>1650558720</v>
+        <v>1650560566</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.3">
@@ -13696,30 +13697,30 @@
         <v>6</v>
       </c>
       <c r="C780" s="2">
-        <v>1626464421</v>
+        <v>1626464773</v>
       </c>
       <c r="D780" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E780" s="2">
-        <v>1650560566</v>
+        <v>1650558913</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C781" s="2">
-        <v>1626465043</v>
+        <v>1626464976</v>
       </c>
       <c r="D781" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E781" s="2">
-        <v>1650299569</v>
+        <v>1650300120</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.3">
@@ -13727,16 +13728,16 @@
         <v>8</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C782" s="2">
-        <v>1626464940</v>
+        <v>1626464960</v>
       </c>
       <c r="D782" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E782" s="2">
-        <v>1650558660</v>
+        <v>1650308989</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.3">
@@ -13747,13 +13748,13 @@
         <v>12</v>
       </c>
       <c r="C783" s="2">
-        <v>1626464976</v>
+        <v>1626464954</v>
       </c>
       <c r="D783" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E783" s="2">
-        <v>1650300120</v>
+        <v>1650300865</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.3">
@@ -13761,16 +13762,16 @@
         <v>8</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C784" s="2">
-        <v>1626464960</v>
+        <v>1626465000</v>
       </c>
       <c r="D784" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E784" s="2">
-        <v>1650308989</v>
+        <v>1650559320</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.3">
@@ -13781,13 +13782,13 @@
         <v>12</v>
       </c>
       <c r="C785" s="2">
-        <v>1626464954</v>
+        <v>1626464817</v>
       </c>
       <c r="D785" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E785" s="2">
-        <v>1650300865</v>
+        <v>1650300072</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.3">
@@ -13798,13 +13799,13 @@
         <v>12</v>
       </c>
       <c r="C786" s="2">
-        <v>1626464817</v>
+        <v>1626464791</v>
       </c>
       <c r="D786" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E786" s="2">
-        <v>1650300072</v>
+        <v>1650317518</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.3">
@@ -13812,16 +13813,16 @@
         <v>8</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C787" s="2">
-        <v>1626464791</v>
+        <v>1626464814</v>
       </c>
       <c r="D787" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E787" s="2">
-        <v>1650317518</v>
+        <v>1650559800</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.3">
@@ -13832,13 +13833,13 @@
         <v>6</v>
       </c>
       <c r="C788" s="2">
-        <v>1626464814</v>
+        <v>1626464813</v>
       </c>
       <c r="D788" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E788" s="2">
-        <v>1650559800</v>
+        <v>1650552180</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.3">
@@ -13849,13 +13850,13 @@
         <v>6</v>
       </c>
       <c r="C789" s="2">
-        <v>1626464813</v>
+        <v>1626464940</v>
       </c>
       <c r="D789" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E789" s="2">
-        <v>1650552180</v>
+        <v>1650558660</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.3">
@@ -13866,30 +13867,30 @@
         <v>6</v>
       </c>
       <c r="C790" s="2">
-        <v>1626464773</v>
+        <v>1626464716</v>
       </c>
       <c r="D790" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E790" s="2">
-        <v>1650558913</v>
+        <v>1650568192</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C791" s="2">
-        <v>1626464716</v>
+        <v>1626465043</v>
       </c>
       <c r="D791" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E791" s="2">
-        <v>1650568192</v>
+        <v>1650299569</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.3">
@@ -13897,16 +13898,16 @@
         <v>8</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C792" s="2">
-        <v>1626465000</v>
+        <v>1626465257</v>
       </c>
       <c r="D792" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E792" s="2">
-        <v>1650559320</v>
+        <v>1650300108</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.3">
@@ -13914,16 +13915,16 @@
         <v>8</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C793" s="2">
-        <v>1626465113</v>
+        <v>1626465074</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E793" s="2">
-        <v>1650559766</v>
+        <v>1650299880</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.3">
@@ -13931,16 +13932,16 @@
         <v>8</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C794" s="2">
-        <v>1626465074</v>
+        <v>1626465328</v>
       </c>
       <c r="D794" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E794" s="2">
-        <v>1650299880</v>
+        <v>1650558803</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.3">
@@ -13951,13 +13952,13 @@
         <v>6</v>
       </c>
       <c r="C795" s="2">
-        <v>1626465328</v>
+        <v>1626465310</v>
       </c>
       <c r="D795" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E795" s="2">
-        <v>1650558803</v>
+        <v>1650559320</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.3">
@@ -13965,16 +13966,16 @@
         <v>8</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C796" s="2">
-        <v>1626465310</v>
+        <v>1626465240</v>
       </c>
       <c r="D796" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E796" s="2">
-        <v>1650559320</v>
+        <v>1649698860</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.3">
@@ -13982,16 +13983,16 @@
         <v>8</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C797" s="2">
-        <v>1626465240</v>
+        <v>1626465113</v>
       </c>
       <c r="D797" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E797" s="2">
-        <v>1649698860</v>
+        <v>1650559766</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.3">
@@ -13999,16 +14000,16 @@
         <v>8</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C798" s="2">
-        <v>1626465257</v>
+        <v>1626465670</v>
       </c>
       <c r="D798" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E798" s="2">
-        <v>1650300108</v>
+        <v>1650559082</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.3">
@@ -14087,13 +14088,13 @@
         <v>6</v>
       </c>
       <c r="C803" s="2">
-        <v>1626465670</v>
+        <v>1626465981</v>
       </c>
       <c r="D803" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E803" s="2">
-        <v>1650559082</v>
+        <v>1650913698</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.3">
@@ -14104,13 +14105,13 @@
         <v>6</v>
       </c>
       <c r="C804" s="2">
-        <v>1626466042</v>
+        <v>1626465962</v>
       </c>
       <c r="D804" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E804" s="2">
-        <v>1650905280</v>
+        <v>1650906420</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.3">
@@ -14121,13 +14122,13 @@
         <v>6</v>
       </c>
       <c r="C805" s="2">
-        <v>1626465981</v>
+        <v>1626465814</v>
       </c>
       <c r="D805" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E805" s="2">
-        <v>1650913698</v>
+        <v>1650567600</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.3">
@@ -14138,13 +14139,13 @@
         <v>6</v>
       </c>
       <c r="C806" s="2">
-        <v>1626465962</v>
+        <v>1626466042</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E806" s="2">
-        <v>1650906420</v>
+        <v>1650905280</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.3">
@@ -14155,13 +14156,13 @@
         <v>6</v>
       </c>
       <c r="C807" s="2">
-        <v>1626465814</v>
+        <v>1626466112</v>
       </c>
       <c r="D807" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E807" s="2">
-        <v>1650567600</v>
+        <v>1650905600</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.3">
@@ -14172,13 +14173,13 @@
         <v>6</v>
       </c>
       <c r="C808" s="2">
-        <v>1626466112</v>
+        <v>1626466029</v>
       </c>
       <c r="D808" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E808" s="2">
-        <v>1650905600</v>
+        <v>1650913946</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.3">
@@ -14189,13 +14190,13 @@
         <v>6</v>
       </c>
       <c r="C809" s="2">
-        <v>1626466029</v>
+        <v>1626465808</v>
       </c>
       <c r="D809" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E809" s="2">
-        <v>1650913946</v>
+        <v>1650559042</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.3">
@@ -14203,33 +14204,33 @@
         <v>8</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C810" s="2">
-        <v>1626465808</v>
+        <v>1626466145</v>
       </c>
       <c r="D810" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E810" s="2">
-        <v>1650559042</v>
+        <v>1650559759</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C811" s="2">
-        <v>1626466020</v>
+        <v>1626466216</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E811" s="2">
-        <v>1649354820</v>
+        <v>1650905681</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.3">
@@ -14237,33 +14238,33 @@
         <v>8</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C812" s="2">
-        <v>1626466216</v>
+        <v>1626466348</v>
       </c>
       <c r="D812" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E812" s="2">
-        <v>1650905681</v>
+        <v>1650559181</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C813" s="2">
-        <v>1626466380</v>
+        <v>1626466252</v>
       </c>
       <c r="D813" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E813" s="2">
-        <v>1650300600</v>
+        <v>1650559638</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.3">
@@ -14271,16 +14272,16 @@
         <v>8</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C814" s="2">
-        <v>1626466348</v>
+        <v>1626466319</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E814" s="2">
-        <v>1650559181</v>
+        <v>1650906479</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.3">
@@ -14288,33 +14289,33 @@
         <v>8</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C815" s="2">
-        <v>1626466252</v>
+        <v>1626466316</v>
       </c>
       <c r="D815" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E815" s="2">
-        <v>1650559638</v>
+        <v>1650912843</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C816" s="2">
-        <v>1626466145</v>
+        <v>1626466340</v>
       </c>
       <c r="D816" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E816" s="2">
-        <v>1650559759</v>
+        <v>1650530067</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.3">
@@ -14322,16 +14323,16 @@
         <v>8</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C817" s="2">
-        <v>1626466319</v>
+        <v>1626466687</v>
       </c>
       <c r="D817" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E817" s="2">
-        <v>1650906479</v>
+        <v>1650558913</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.3">
@@ -14342,30 +14343,30 @@
         <v>6</v>
       </c>
       <c r="C818" s="2">
-        <v>1626466316</v>
+        <v>1626466797</v>
       </c>
       <c r="D818" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E818" s="2">
-        <v>1650912843</v>
+        <v>1650906720</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C819" s="2">
-        <v>1626466340</v>
+        <v>1626466715</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E819" s="2">
-        <v>1650530067</v>
+        <v>1650905640</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.3">
@@ -14373,16 +14374,16 @@
         <v>8</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C820" s="2">
-        <v>1626466687</v>
+        <v>1626466585</v>
       </c>
       <c r="D820" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E820" s="2">
-        <v>1650558913</v>
+        <v>1650907364</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.3">
@@ -14393,13 +14394,13 @@
         <v>6</v>
       </c>
       <c r="C821" s="2">
-        <v>1626466797</v>
+        <v>1626466578</v>
       </c>
       <c r="D821" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E821" s="2">
-        <v>1650906720</v>
+        <v>1650913074</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.3">
@@ -14410,13 +14411,13 @@
         <v>6</v>
       </c>
       <c r="C822" s="2">
-        <v>1626466715</v>
+        <v>1626466574</v>
       </c>
       <c r="D822" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E822" s="2">
-        <v>1650905640</v>
+        <v>1650905610</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.3">
@@ -14427,13 +14428,13 @@
         <v>6</v>
       </c>
       <c r="C823" s="2">
-        <v>1626466585</v>
+        <v>1626466560</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E823" s="2">
-        <v>1650907364</v>
+        <v>1649702881</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.3">
@@ -14441,16 +14442,16 @@
         <v>8</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C824" s="2">
-        <v>1626466578</v>
+        <v>1626466929</v>
       </c>
       <c r="D824" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E824" s="2">
-        <v>1650913074</v>
+        <v>1650559399</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.3">
@@ -14461,13 +14462,13 @@
         <v>6</v>
       </c>
       <c r="C825" s="2">
-        <v>1626466574</v>
+        <v>1626467200</v>
       </c>
       <c r="D825" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E825" s="2">
-        <v>1650905610</v>
+        <v>1650906420</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.3">
@@ -14475,33 +14476,33 @@
         <v>8</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C826" s="2">
-        <v>1626466560</v>
+        <v>1626467009</v>
       </c>
       <c r="D826" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E826" s="2">
-        <v>1649702881</v>
+        <v>1650559080</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C827" s="2">
-        <v>1626466740</v>
+        <v>1626467042</v>
       </c>
       <c r="D827" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E827" s="2">
-        <v>1649705760</v>
+        <v>1650906288</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.3">
@@ -14509,16 +14510,16 @@
         <v>8</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C828" s="2">
-        <v>1626466929</v>
+        <v>1626467399</v>
       </c>
       <c r="D828" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E828" s="2">
-        <v>1650559399</v>
+        <v>1650899628</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.3">
@@ -14529,13 +14530,13 @@
         <v>6</v>
       </c>
       <c r="C829" s="2">
-        <v>1626467200</v>
+        <v>1626467291</v>
       </c>
       <c r="D829" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E829" s="2">
-        <v>1650906420</v>
+        <v>1650905589</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.3">
@@ -14546,30 +14547,30 @@
         <v>12</v>
       </c>
       <c r="C830" s="2">
-        <v>1626467009</v>
+        <v>1626467404</v>
       </c>
       <c r="D830" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E830" s="2">
-        <v>1650559080</v>
+        <v>1650559599</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C831" s="2">
-        <v>1626467042</v>
+        <v>1626467394</v>
       </c>
       <c r="D831" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E831" s="2">
-        <v>1650906288</v>
+        <v>1650560010</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.3">
@@ -14580,13 +14581,13 @@
         <v>6</v>
       </c>
       <c r="C832" s="2">
-        <v>1626467399</v>
+        <v>1626467460</v>
       </c>
       <c r="D832" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E832" s="2">
-        <v>1650899628</v>
+        <v>1650906780</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.3">
@@ -14597,13 +14598,13 @@
         <v>6</v>
       </c>
       <c r="C833" s="2">
-        <v>1626467460</v>
+        <v>1626467754</v>
       </c>
       <c r="D833" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E833" s="2">
-        <v>1650906780</v>
+        <v>1650915710</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.3">
@@ -14611,33 +14612,33 @@
         <v>8</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C834" s="2">
-        <v>1626467404</v>
+        <v>1626467760</v>
       </c>
       <c r="D834" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E834" s="2">
-        <v>1650559599</v>
+        <v>1649962080</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C835" s="2">
-        <v>1626467394</v>
+        <v>1626467805</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E835" s="2">
-        <v>1650560010</v>
+        <v>1649702085</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.3">
@@ -14645,16 +14646,16 @@
         <v>8</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C836" s="2">
-        <v>1626467291</v>
+        <v>1626467747</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E836" s="2">
-        <v>1650905589</v>
+        <v>1650560747</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.3">
@@ -14662,16 +14663,16 @@
         <v>8</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C837" s="2">
-        <v>1626467754</v>
+        <v>1626467710</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E837" s="2">
-        <v>1650915710</v>
+        <v>1650558720</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.3">
@@ -14682,13 +14683,13 @@
         <v>6</v>
       </c>
       <c r="C838" s="2">
-        <v>1626467760</v>
+        <v>1626467839</v>
       </c>
       <c r="D838" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E838" s="2">
-        <v>1649962080</v>
+        <v>1651164480</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.3">
@@ -14699,13 +14700,13 @@
         <v>12</v>
       </c>
       <c r="C839" s="2">
-        <v>1626467805</v>
+        <v>1626468158</v>
       </c>
       <c r="D839" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E839" s="2">
-        <v>1649702085</v>
+        <v>1650908270</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.3">
@@ -14716,13 +14717,13 @@
         <v>12</v>
       </c>
       <c r="C840" s="2">
-        <v>1626467747</v>
+        <v>1626468175</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E840" s="2">
-        <v>1650560747</v>
+        <v>1650889452</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.3">
@@ -14733,13 +14734,13 @@
         <v>12</v>
       </c>
       <c r="C841" s="2">
-        <v>1626467710</v>
+        <v>1626468031</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E841" s="2">
-        <v>1650558720</v>
+        <v>1650904444</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.3">
@@ -14750,13 +14751,13 @@
         <v>6</v>
       </c>
       <c r="C842" s="2">
-        <v>1626467839</v>
+        <v>1626468164</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E842" s="2">
-        <v>1651164480</v>
+        <v>1651157041</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.3">
@@ -14764,33 +14765,33 @@
         <v>8</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C843" s="2">
-        <v>1626468158</v>
+        <v>1626467994</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E843" s="2">
-        <v>1650908270</v>
+        <v>1651164316</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C844" s="2">
-        <v>1626468175</v>
+        <v>1626467966</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E844" s="2">
-        <v>1650889452</v>
+        <v>1650904425</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.3">
@@ -14798,16 +14799,16 @@
         <v>8</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C845" s="2">
-        <v>1626468031</v>
+        <v>1626468621</v>
       </c>
       <c r="D845" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E845" s="2">
-        <v>1650904444</v>
+        <v>1649962221</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.3">
@@ -14818,13 +14819,13 @@
         <v>6</v>
       </c>
       <c r="C846" s="2">
-        <v>1626468164</v>
+        <v>1626468389</v>
       </c>
       <c r="D846" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E846" s="2">
-        <v>1651157041</v>
+        <v>1651164660</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.3">
@@ -14832,33 +14833,33 @@
         <v>8</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C847" s="2">
-        <v>1626467994</v>
+        <v>1626468362</v>
       </c>
       <c r="D847" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E847" s="2">
-        <v>1651164316</v>
+        <v>1650904759</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C848" s="2">
-        <v>1626467966</v>
+        <v>1626468500</v>
       </c>
       <c r="D848" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E848" s="2">
-        <v>1650904425</v>
+        <v>1651164596</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.3">
@@ -14866,16 +14867,16 @@
         <v>8</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C849" s="2">
-        <v>1626468621</v>
+        <v>1626468749</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E849" s="2">
-        <v>1649962221</v>
+        <v>1647881316</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.3">
@@ -14883,16 +14884,16 @@
         <v>8</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C850" s="2">
-        <v>1626468389</v>
+        <v>1626468820</v>
       </c>
       <c r="D850" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E850" s="2">
-        <v>1651164660</v>
+        <v>1650909920</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.3">
@@ -14903,13 +14904,13 @@
         <v>12</v>
       </c>
       <c r="C851" s="2">
-        <v>1626468362</v>
+        <v>1626468720</v>
       </c>
       <c r="D851" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E851" s="2">
-        <v>1650904759</v>
+        <v>1650300000</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.3">
@@ -14917,16 +14918,16 @@
         <v>8</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C852" s="2">
-        <v>1626468500</v>
+        <v>1626468676</v>
       </c>
       <c r="D852" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E852" s="2">
-        <v>1651164596</v>
+        <v>1650904598</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.3">
@@ -14934,16 +14935,16 @@
         <v>8</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C853" s="2">
-        <v>1626468749</v>
+        <v>1626469203</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E853" s="2">
-        <v>1647881316</v>
+        <v>1651164360</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.3">
@@ -14951,16 +14952,16 @@
         <v>8</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C854" s="2">
-        <v>1626468820</v>
+        <v>1626469207</v>
       </c>
       <c r="D854" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E854" s="2">
-        <v>1650909920</v>
+        <v>1651162440</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.3">
@@ -14968,16 +14969,16 @@
         <v>8</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C855" s="2">
-        <v>1626468720</v>
+        <v>1626469080</v>
       </c>
       <c r="D855" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E855" s="2">
-        <v>1650300000</v>
+        <v>1651164384</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.3">
@@ -14988,13 +14989,13 @@
         <v>12</v>
       </c>
       <c r="C856" s="2">
-        <v>1626468676</v>
+        <v>1626469197</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E856" s="2">
-        <v>1650904598</v>
+        <v>1650897291</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.3">
@@ -15002,16 +15003,16 @@
         <v>8</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C857" s="2">
-        <v>1626469203</v>
+        <v>1626469059</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E857" s="2">
-        <v>1651164360</v>
+        <v>1650904584</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.3">
@@ -15022,13 +15023,13 @@
         <v>6</v>
       </c>
       <c r="C858" s="2">
-        <v>1626469207</v>
+        <v>1626469317</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E858" s="2">
-        <v>1651162440</v>
+        <v>1651164687</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.3">
@@ -15039,13 +15040,13 @@
         <v>6</v>
       </c>
       <c r="C859" s="2">
-        <v>1626469080</v>
+        <v>1626469133</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E859" s="2">
-        <v>1651164384</v>
+        <v>1651168604</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.3">
@@ -15053,16 +15054,16 @@
         <v>8</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C860" s="2">
-        <v>1626469197</v>
+        <v>1626469077</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E860" s="2">
-        <v>1650897291</v>
+        <v>1651164371</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.3">
@@ -15070,16 +15071,16 @@
         <v>8</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C861" s="2">
-        <v>1626469059</v>
+        <v>1626469667</v>
       </c>
       <c r="D861" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E861" s="2">
-        <v>1650904584</v>
+        <v>1651164600</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.3">
@@ -15090,13 +15091,13 @@
         <v>6</v>
       </c>
       <c r="C862" s="2">
-        <v>1626469317</v>
+        <v>1626469560</v>
       </c>
       <c r="D862" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E862" s="2">
-        <v>1651164687</v>
+        <v>1651190399</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.3">
@@ -15107,13 +15108,13 @@
         <v>6</v>
       </c>
       <c r="C863" s="2">
-        <v>1626469133</v>
+        <v>1626469464</v>
       </c>
       <c r="D863" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E863" s="2">
-        <v>1651168604</v>
+        <v>1651164722</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.3">
@@ -15121,16 +15122,16 @@
         <v>8</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C864" s="2">
-        <v>1626469077</v>
+        <v>1626469725</v>
       </c>
       <c r="D864" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E864" s="2">
-        <v>1651164371</v>
+        <v>1650861576</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.3">
@@ -15138,16 +15139,16 @@
         <v>8</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C865" s="2">
-        <v>1626469667</v>
+        <v>1626469500</v>
       </c>
       <c r="D865" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E865" s="2">
-        <v>1651164600</v>
+        <v>1650904620</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.3">
@@ -15158,30 +15159,30 @@
         <v>6</v>
       </c>
       <c r="C866" s="2">
-        <v>1626469560</v>
+        <v>1626469761</v>
       </c>
       <c r="D866" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E866" s="2">
-        <v>1651190399</v>
+        <v>1651164540</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C867" s="2">
-        <v>1626469464</v>
+        <v>1626469808</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E867" s="2">
-        <v>1651164722</v>
+        <v>1650920947</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.3">
@@ -15189,16 +15190,16 @@
         <v>8</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C868" s="2">
-        <v>1626469725</v>
+        <v>1626470051</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E868" s="2">
-        <v>1650861576</v>
+        <v>1651164720</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.3">
@@ -15209,13 +15210,13 @@
         <v>12</v>
       </c>
       <c r="C869" s="2">
-        <v>1626469500</v>
+        <v>1626469986</v>
       </c>
       <c r="D869" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E869" s="2">
-        <v>1650904620</v>
+        <v>1650906972</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.3">
@@ -15223,33 +15224,33 @@
         <v>8</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C870" s="2">
-        <v>1626469761</v>
+        <v>1626469889</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E870" s="2">
-        <v>1651164540</v>
+        <v>1650904740</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C871" s="2">
-        <v>1626469808</v>
+        <v>1626469926</v>
       </c>
       <c r="D871" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E871" s="2">
-        <v>1650920947</v>
+        <v>1651165256</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.3">
@@ -15260,30 +15261,30 @@
         <v>6</v>
       </c>
       <c r="C872" s="2">
-        <v>1626470051</v>
+        <v>1626469928</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E872" s="2">
-        <v>1651164720</v>
+        <v>1651164333</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C873" s="2">
-        <v>1626469986</v>
+        <v>1626470227</v>
       </c>
       <c r="D873" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E873" s="2">
-        <v>1650906972</v>
+        <v>1650907800</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.3">
@@ -15294,13 +15295,13 @@
         <v>12</v>
       </c>
       <c r="C874" s="2">
-        <v>1626469889</v>
+        <v>1626470427</v>
       </c>
       <c r="D874" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E874" s="2">
-        <v>1650904740</v>
+        <v>1650901200</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.3">
@@ -15311,13 +15312,13 @@
         <v>6</v>
       </c>
       <c r="C875" s="2">
-        <v>1626469926</v>
+        <v>1626470280</v>
       </c>
       <c r="D875" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E875" s="2">
-        <v>1651165256</v>
+        <v>1651164720</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.3">
@@ -15328,13 +15329,13 @@
         <v>6</v>
       </c>
       <c r="C876" s="2">
-        <v>1626469928</v>
+        <v>1626470170</v>
       </c>
       <c r="D876" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E876" s="2">
-        <v>1651164333</v>
+        <v>1651153680</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.3">
@@ -15345,13 +15346,13 @@
         <v>9</v>
       </c>
       <c r="C877" s="2">
-        <v>1626470227</v>
+        <v>1626470161</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E877" s="2">
-        <v>1650907800</v>
+        <v>1650904278</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.3">
@@ -15359,16 +15360,16 @@
         <v>8</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C878" s="2">
-        <v>1626470427</v>
+        <v>1626470630</v>
       </c>
       <c r="D878" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E878" s="2">
-        <v>1650901200</v>
+        <v>1651516200</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.3">
@@ -15376,16 +15377,16 @@
         <v>8</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C879" s="2">
-        <v>1626470280</v>
+        <v>1626470680</v>
       </c>
       <c r="D879" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E879" s="2">
-        <v>1651164720</v>
+        <v>1651175326</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.3">
@@ -15396,13 +15397,13 @@
         <v>6</v>
       </c>
       <c r="C880" s="2">
-        <v>1626470170</v>
+        <v>1626470592</v>
       </c>
       <c r="D880" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E880" s="2">
-        <v>1651153680</v>
+        <v>1651164855</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.3">
@@ -15413,30 +15414,30 @@
         <v>9</v>
       </c>
       <c r="C881" s="2">
-        <v>1626470161</v>
+        <v>1626470780</v>
       </c>
       <c r="D881" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E881" s="2">
-        <v>1650904278</v>
+        <v>1651163520</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C882" s="2">
-        <v>1626470592</v>
+        <v>1626470681</v>
       </c>
       <c r="D882" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E882" s="2">
-        <v>1651164855</v>
+        <v>1651174755</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.3">
@@ -15444,16 +15445,16 @@
         <v>8</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C883" s="2">
-        <v>1626470680</v>
+        <v>1626470880</v>
       </c>
       <c r="D883" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E883" s="2">
-        <v>1651175326</v>
+        <v>1650307560</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.3">
@@ -15464,47 +15465,47 @@
         <v>6</v>
       </c>
       <c r="C884" s="2">
-        <v>1626470630</v>
+        <v>1626471237</v>
       </c>
       <c r="D884" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E884" s="2">
-        <v>1651516200</v>
+        <v>1651510080</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C885" s="2">
-        <v>1626470780</v>
+        <v>1626471217</v>
       </c>
       <c r="D885" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E885" s="2">
-        <v>1651163520</v>
+        <v>1651163700</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C886" s="2">
-        <v>1626470681</v>
+        <v>1626472108</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E886" s="2">
-        <v>1651174755</v>
+        <v>1651510620</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.3">
@@ -15512,33 +15513,33 @@
         <v>8</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C887" s="2">
-        <v>1626470880</v>
+        <v>1626472123</v>
       </c>
       <c r="D887" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E887" s="2">
-        <v>1650307560</v>
+        <v>1651163983</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C888" s="2">
-        <v>1626471237</v>
+        <v>1626471952</v>
       </c>
       <c r="D888" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E888" s="2">
-        <v>1651510080</v>
+        <v>1650908932</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.3">
@@ -15546,16 +15547,16 @@
         <v>8</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C889" s="2">
-        <v>1626471217</v>
+        <v>1626472160</v>
       </c>
       <c r="D889" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E889" s="2">
-        <v>1651163700</v>
+        <v>1651517600</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.3">
@@ -15566,13 +15567,13 @@
         <v>12</v>
       </c>
       <c r="C890" s="2">
-        <v>1626472123</v>
+        <v>1626472582</v>
       </c>
       <c r="D890" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E890" s="2">
-        <v>1651163983</v>
+        <v>1651163962</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.3">
@@ -15580,33 +15581,33 @@
         <v>8</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C891" s="2">
-        <v>1626472108</v>
+        <v>1626472307</v>
       </c>
       <c r="D891" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E891" s="2">
-        <v>1651510620</v>
+        <v>1651164000</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C892" s="2">
-        <v>1626471952</v>
+        <v>1626472389</v>
       </c>
       <c r="D892" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E892" s="2">
-        <v>1650908932</v>
+        <v>1651510560</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.3">
@@ -15614,16 +15615,16 @@
         <v>8</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C893" s="2">
-        <v>1626472160</v>
+        <v>1626472955</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E893" s="2">
-        <v>1651517600</v>
+        <v>1651164000</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.3">
@@ -15634,13 +15635,13 @@
         <v>12</v>
       </c>
       <c r="C894" s="2">
-        <v>1626472582</v>
+        <v>1626472701</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E894" s="2">
-        <v>1651163962</v>
+        <v>1651170912</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.3">
@@ -15651,13 +15652,13 @@
         <v>12</v>
       </c>
       <c r="C895" s="2">
-        <v>1626472307</v>
+        <v>1626473640</v>
       </c>
       <c r="D895" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E895" s="2">
-        <v>1651164000</v>
+        <v>1651163641</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.3">
@@ -15665,16 +15666,16 @@
         <v>8</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C896" s="2">
-        <v>1626472389</v>
+        <v>1626473559</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E896" s="2">
-        <v>1651510560</v>
+        <v>1647279039</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.3">
@@ -15682,16 +15683,16 @@
         <v>8</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C897" s="2">
-        <v>1626472701</v>
+        <v>1626473557</v>
       </c>
       <c r="D897" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E897" s="2">
-        <v>1651170912</v>
+        <v>1651512013</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.3">
@@ -15699,16 +15700,16 @@
         <v>8</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C898" s="2">
-        <v>1626472955</v>
+        <v>1626473700</v>
       </c>
       <c r="D898" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E898" s="2">
-        <v>1651164000</v>
+        <v>1651510260</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.3">
@@ -15716,16 +15717,16 @@
         <v>8</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C899" s="2">
-        <v>1626473640</v>
+        <v>1626474021</v>
       </c>
       <c r="D899" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E899" s="2">
-        <v>1651163641</v>
+        <v>1651509600</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.3">
@@ -15733,16 +15734,16 @@
         <v>8</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C900" s="2">
-        <v>1626473559</v>
+        <v>1626473708</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E900" s="2">
-        <v>1647279039</v>
+        <v>1651511251</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.3">
@@ -15750,16 +15751,16 @@
         <v>8</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C901" s="2">
-        <v>1626473557</v>
+        <v>1626474041</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E901" s="2">
-        <v>1651512013</v>
+        <v>1651164748</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.3">
@@ -15770,13 +15771,13 @@
         <v>12</v>
       </c>
       <c r="C902" s="2">
-        <v>1626474041</v>
+        <v>1626473992</v>
       </c>
       <c r="D902" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E902" s="2">
-        <v>1651164748</v>
+        <v>1651163598</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.3">
@@ -15787,13 +15788,13 @@
         <v>12</v>
       </c>
       <c r="C903" s="2">
-        <v>1626473992</v>
+        <v>1626474231</v>
       </c>
       <c r="D903" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E903" s="2">
-        <v>1651163598</v>
+        <v>1651163914</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.3">
@@ -15801,16 +15802,16 @@
         <v>8</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C904" s="2">
-        <v>1626473708</v>
+        <v>1626474119</v>
       </c>
       <c r="D904" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E904" s="2">
-        <v>1651511251</v>
+        <v>1651164600</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.3">
@@ -15821,7 +15822,7 @@
         <v>6</v>
       </c>
       <c r="C905" s="2">
-        <v>1626473700</v>
+        <v>1626474547</v>
       </c>
       <c r="D905" s="1" t="s">
         <v>10</v>
@@ -15835,16 +15836,16 @@
         <v>8</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C906" s="2">
-        <v>1626474021</v>
+        <v>1626474822</v>
       </c>
       <c r="D906" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E906" s="2">
-        <v>1651509600</v>
+        <v>1651509950</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.3">
@@ -15855,13 +15856,13 @@
         <v>12</v>
       </c>
       <c r="C907" s="2">
-        <v>1626474231</v>
+        <v>1626475476</v>
       </c>
       <c r="D907" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E907" s="2">
-        <v>1651163914</v>
+        <v>1651509360</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.3">
@@ -15872,30 +15873,30 @@
         <v>12</v>
       </c>
       <c r="C908" s="2">
-        <v>1626474119</v>
+        <v>1626476160</v>
       </c>
       <c r="D908" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E908" s="2">
-        <v>1651164600</v>
+        <v>1651509720</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C909" s="2">
-        <v>1626474547</v>
+        <v>1626476580</v>
       </c>
       <c r="D909" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E909" s="2">
-        <v>1651510260</v>
+        <v>1651167111</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.3">
@@ -15906,30 +15907,30 @@
         <v>12</v>
       </c>
       <c r="C910" s="2">
-        <v>1626474822</v>
+        <v>1626477129</v>
       </c>
       <c r="D910" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E910" s="2">
-        <v>1651509950</v>
+        <v>1651509240</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C911" s="2">
-        <v>1626475476</v>
+        <v>1626478210</v>
       </c>
       <c r="D911" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E911" s="2">
-        <v>1651509360</v>
+        <v>1651509120</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.3">
@@ -15940,13 +15941,13 @@
         <v>12</v>
       </c>
       <c r="C912" s="2">
-        <v>1626476160</v>
+        <v>1626478291</v>
       </c>
       <c r="D912" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E912" s="2">
-        <v>1651509720</v>
+        <v>1651509660</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.3">
@@ -15957,13 +15958,13 @@
         <v>9</v>
       </c>
       <c r="C913" s="2">
-        <v>1626476580</v>
+        <v>1626478661</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E913" s="2">
-        <v>1651167111</v>
+        <v>1651527738</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.3">
@@ -15971,33 +15972,33 @@
         <v>8</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C914" s="2">
-        <v>1626477129</v>
+        <v>1626479275</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E914" s="2">
-        <v>1651509240</v>
+        <v>1648485180</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C915" s="2">
-        <v>1626477506</v>
+        <v>1626480191</v>
       </c>
       <c r="D915" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E915" s="2">
-        <v>1649356646</v>
+        <v>1651509000</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.3">
@@ -16008,47 +16009,47 @@
         <v>12</v>
       </c>
       <c r="C916" s="2">
-        <v>1626478291</v>
+        <v>1626480788</v>
       </c>
       <c r="D916" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E916" s="2">
-        <v>1651509660</v>
+        <v>1651509360</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C917" s="2">
-        <v>1626478210</v>
+        <v>1626484083</v>
       </c>
       <c r="D917" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E917" s="2">
-        <v>1651509120</v>
+        <v>1651509514</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C918" s="2">
-        <v>1626478661</v>
+        <v>1626508164</v>
       </c>
       <c r="D918" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E918" s="2">
-        <v>1651527738</v>
+        <v>1649099096</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.3">
@@ -16059,13 +16060,13 @@
         <v>9</v>
       </c>
       <c r="C919" s="2">
-        <v>1626479275</v>
+        <v>1626512299</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E919" s="2">
-        <v>1648485180</v>
+        <v>1649356328</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.3">
@@ -16073,16 +16074,16 @@
         <v>8</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C920" s="2">
-        <v>1626480191</v>
+        <v>1626513235</v>
       </c>
       <c r="D920" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E920" s="2">
-        <v>1651509000</v>
+        <v>1649341953</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.3">
@@ -16090,16 +16091,16 @@
         <v>8</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C921" s="2">
-        <v>1626480788</v>
+        <v>1626518984</v>
       </c>
       <c r="D921" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E921" s="2">
-        <v>1651509360</v>
+        <v>1649694755</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.3">
@@ -16107,50 +16108,50 @@
         <v>8</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C922" s="2">
-        <v>1626484083</v>
+        <v>1626519900</v>
       </c>
       <c r="D922" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E922" s="2">
-        <v>1651509514</v>
+        <v>1649701800</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C923" s="2">
-        <v>1626488220</v>
+        <v>1626522051</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E923" s="2">
-        <v>1651180566</v>
+        <v>1649953920</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C924" s="2">
-        <v>1626499920</v>
+        <v>1626534019</v>
       </c>
       <c r="D924" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E924" s="2">
-        <v>1650559320</v>
+        <v>1650559500</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.3">
@@ -16161,13 +16162,13 @@
         <v>9</v>
       </c>
       <c r="C925" s="2">
-        <v>1626508164</v>
+        <v>1626534980</v>
       </c>
       <c r="D925" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E925" s="2">
-        <v>1649099096</v>
+        <v>1650559920</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.3">
@@ -16178,13 +16179,13 @@
         <v>9</v>
       </c>
       <c r="C926" s="2">
-        <v>1626512299</v>
+        <v>1626539305</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E926" s="2">
-        <v>1649356328</v>
+        <v>1650563327</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.3">
@@ -16195,13 +16196,13 @@
         <v>9</v>
       </c>
       <c r="C927" s="2">
-        <v>1626513235</v>
+        <v>1626550860</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E927" s="2">
-        <v>1649341953</v>
+        <v>1649961410</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.3">
@@ -16212,13 +16213,13 @@
         <v>9</v>
       </c>
       <c r="C928" s="2">
-        <v>1626518984</v>
+        <v>1626554015</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E928" s="2">
-        <v>1649694755</v>
+        <v>1651156260</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.3">
@@ -16229,133 +16230,49 @@
         <v>9</v>
       </c>
       <c r="C929" s="2">
-        <v>1626519900</v>
+        <v>1626555348</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E929" s="2">
-        <v>1649701800</v>
+        <v>1651170731</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A930" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B930" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C930" s="2">
-        <v>1626522051</v>
-      </c>
-      <c r="D930" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E930" s="2">
-        <v>1649953920</v>
-      </c>
+      <c r="A930" s="1"/>
+      <c r="B930" s="2"/>
+      <c r="C930" s="1"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A931" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B931" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C931" s="2">
-        <v>1626534019</v>
-      </c>
-      <c r="D931" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E931" s="2">
-        <v>1650559500</v>
-      </c>
+      <c r="A931" s="1"/>
+      <c r="B931" s="2"/>
+      <c r="C931" s="1"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A932" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B932" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C932" s="2">
-        <v>1626534980</v>
-      </c>
-      <c r="D932" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E932" s="2">
-        <v>1650559920</v>
-      </c>
+      <c r="A932" s="1"/>
+      <c r="B932" s="2"/>
+      <c r="C932" s="1"/>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A933" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C933" s="2">
-        <v>1626539305</v>
-      </c>
-      <c r="D933" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E933" s="2">
-        <v>1650563327</v>
-      </c>
+      <c r="A933" s="1"/>
+      <c r="B933" s="2"/>
+      <c r="C933" s="1"/>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A934" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C934" s="2">
-        <v>1626550860</v>
-      </c>
-      <c r="D934" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E934" s="2">
-        <v>1649961410</v>
-      </c>
+      <c r="A934" s="1"/>
+      <c r="B934" s="2"/>
+      <c r="C934" s="1"/>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A935" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B935" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C935" s="2">
-        <v>1626554015</v>
-      </c>
-      <c r="D935" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E935" s="2">
-        <v>1651156260</v>
-      </c>
+      <c r="A935" s="1"/>
+      <c r="B935" s="2"/>
+      <c r="C935" s="1"/>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A936" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B936" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C936" s="2">
-        <v>1626555348</v>
-      </c>
-      <c r="D936" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E936" s="2">
-        <v>1651170731</v>
-      </c>
+      <c r="A936" s="1"/>
+      <c r="B936" s="2"/>
+      <c r="C936" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
